--- a/data/groupTest1_1_2024-01-30.xlsx
+++ b/data/groupTest1_1_2024-01-30.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1580,6 +1580,98 @@
       </c>
       <c r="Z12" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>R000217</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AgriLive</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Chinese egg noodles</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>R000217</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>មីស្រស់</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Chinese egg noodles</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" t="n">
+        <v>164</v>
+      </c>
+      <c r="I13" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>33.09</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>4</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
